--- a/biology/Zoologie/Elaeniinae/Elaeniinae.xlsx
+++ b/biology/Zoologie/Elaeniinae/Elaeniinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éléninés
 Les Elaeniinae sont une sous-famille de passereaux de la famille des tyrannidés.
@@ -512,7 +524,9 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anairetes Reichenbach, 1850
 Atalotriccus Ridgway, 1905
@@ -584,9 +598,11 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Tyranneau souris appartient au genre Phaeomyias et non au genre Phyllomyias, bien que ce dernier genre comporte aussi des oiseaux dont le nom commence par Tyranneau qui est un nom très commun issu de tyran[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Tyranneau souris appartient au genre Phaeomyias et non au genre Phyllomyias, bien que ce dernier genre comporte aussi des oiseaux dont le nom commence par Tyranneau qui est un nom très commun issu de tyran.
 </t>
         </is>
       </c>
